--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="2"/>
+    <workbookView activeTab="1" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="71">
   <si>
     <t>TC</t>
   </si>
@@ -138,9 +138,6 @@
     <t>DONT TOUCH AUTO GLTW EMPLOYER</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 318</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 319</t>
   </si>
   <si>
@@ -235,12 +232,16 @@
   </si>
   <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201819\\201819 Scottish Payroll Net Income tax calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,57 +328,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -394,10 +395,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -432,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +485,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +590,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -598,13 +599,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -614,7 +615,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -623,7 +624,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -632,7 +633,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -642,12 +643,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -678,7 +679,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -697,7 +698,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -709,7 +710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -718,10 +719,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -752,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -795,26 +796,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -843,15 +844,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="6">
         <v>510.64</v>
@@ -863,15 +864,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6">
         <v>511.16</v>
@@ -883,15 +884,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6">
         <v>2487.16</v>
@@ -903,15 +904,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6">
         <v>2487.6800000000003</v>
@@ -923,15 +924,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6">
         <v>2539.16</v>
@@ -943,15 +944,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6">
         <v>12627.16</v>
@@ -963,15 +964,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6">
         <v>12627.68</v>
@@ -983,15 +984,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6">
         <v>12679.16</v>
@@ -1003,15 +1004,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6">
         <v>32907.160000000003</v>
@@ -1023,15 +1024,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6">
         <v>32907.68</v>
@@ -1043,15 +1044,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6">
         <v>150479.16</v>
@@ -1063,15 +1064,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="6">
         <v>150479.67999999999</v>
@@ -1083,15 +1084,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6">
         <v>10399.48</v>
@@ -1103,15 +1104,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="6">
         <v>10399.48</v>
@@ -1123,15 +1124,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="6">
         <v>10399.48</v>
@@ -1143,15 +1144,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6">
         <v>10399.48</v>
@@ -1163,12 +1164,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>19</v>
@@ -1183,12 +1184,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>19</v>
@@ -1203,12 +1204,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>19</v>
@@ -1225,34 +1226,34 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="53.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1296,15 +1297,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -1313,13 +1314,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>33</v>
@@ -1331,15 +1332,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>17</v>
@@ -1348,13 +1349,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>33</v>
@@ -1366,15 +1367,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>17</v>
@@ -1383,13 +1384,13 @@
         <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>33</v>
@@ -1401,15 +1402,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
@@ -1418,13 +1419,13 @@
         <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>33</v>
@@ -1436,15 +1437,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>17</v>
@@ -1453,13 +1454,13 @@
         <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>33</v>
@@ -1471,15 +1472,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>17</v>
@@ -1488,13 +1489,13 @@
         <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>33</v>
@@ -1506,15 +1507,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>17</v>
@@ -1523,13 +1524,13 @@
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>33</v>
@@ -1541,15 +1542,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
@@ -1558,13 +1559,13 @@
         <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>33</v>
@@ -1576,15 +1577,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>17</v>
@@ -1593,13 +1594,13 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>33</v>
@@ -1611,15 +1612,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="11" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>17</v>
@@ -1628,13 +1629,13 @@
         <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>33</v>
@@ -1646,15 +1647,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="12" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
@@ -1663,13 +1664,13 @@
         <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>33</v>
@@ -1681,15 +1682,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="13" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>17</v>
@@ -1698,13 +1699,13 @@
         <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>33</v>
@@ -1716,15 +1717,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="14" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>17</v>
@@ -1733,13 +1734,13 @@
         <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>33</v>
@@ -1751,15 +1752,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="15" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>17</v>
@@ -1768,13 +1769,13 @@
         <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>33</v>
@@ -1786,15 +1787,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="16" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>17</v>
@@ -1803,13 +1804,13 @@
         <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>33</v>
@@ -1821,15 +1822,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="17" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>17</v>
@@ -1838,13 +1839,13 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>33</v>
@@ -1856,15 +1857,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="18" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>17</v>
@@ -1873,13 +1874,13 @@
         <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>33</v>
@@ -1891,15 +1892,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="19" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>17</v>
@@ -1908,13 +1909,13 @@
         <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>33</v>
@@ -1926,15 +1927,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="20" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
@@ -1943,13 +1944,13 @@
         <v>34</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>33</v>
@@ -1963,16 +1964,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A14:A20" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A13"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A14:A20"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1981,17 +1982,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2026,7 +2027,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2038,15 +2039,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -2055,13 +2056,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>36</v>
@@ -2070,7 +2071,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>4</v>
@@ -2078,8 +2079,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="71">
   <si>
     <t>TC</t>
   </si>
@@ -241,7 +241,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,57 +327,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -395,10 +394,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -433,7 +432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,7 +484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,7 +589,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -599,13 +598,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -615,7 +614,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -624,7 +623,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -633,7 +632,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -643,12 +642,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -679,7 +678,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -698,7 +697,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -710,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -719,10 +718,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -753,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -796,26 +795,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -864,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
@@ -884,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -904,7 +903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -924,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -944,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -964,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
@@ -984,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -1084,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>56</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>59</v>
       </c>
@@ -1226,17 +1225,17 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1245,15 +1244,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="53.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1297,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1332,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="11" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="12" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="13" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="14" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="15" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="16" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="17" s="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="18" s="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="19" s="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="20" s="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -1964,16 +1963,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A13"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A14:A20"/>
+    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A14:A20" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1982,17 +1981,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="51.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2039,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -2079,8 +2078,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="71">
   <si>
     <t>TC</t>
   </si>
@@ -241,6 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,57 +328,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -394,10 +395,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -432,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +485,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +590,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -598,13 +599,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -614,7 +615,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -623,7 +624,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -632,7 +633,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -642,12 +643,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -678,7 +679,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -697,7 +698,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -709,7 +710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -718,10 +719,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -752,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -795,13 +796,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -810,11 +811,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -843,7 +844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -863,7 +864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
@@ -883,7 +884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -903,7 +904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -923,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -943,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -963,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
@@ -983,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>56</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>59</v>
       </c>
@@ -1225,17 +1226,17 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1244,15 +1245,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="53.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1296,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="11" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="12" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="13" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="14" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="15" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="16" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="17" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="18" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="19" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="20" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -1963,16 +1964,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A14:A20" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A13"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A14:A20"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1981,17 +1982,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2038,7 +2039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -2078,8 +2079,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="71">
   <si>
     <t>TC</t>
   </si>
@@ -138,6 +138,9 @@
     <t>DONT TOUCH AUTO GLTW EMPLOYER</t>
   </si>
   <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 318</t>
+  </si>
+  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 319</t>
   </si>
   <si>
@@ -232,16 +235,12 @@
   </si>
   <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201819\\201819 Scottish Payroll Net Income tax calculation Test result.xlsx</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,57 +327,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -395,10 +394,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -433,7 +432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,7 +484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,7 +589,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -599,13 +598,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -615,7 +614,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -624,7 +623,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -633,7 +632,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -643,12 +642,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -679,7 +678,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -698,7 +697,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -710,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -719,10 +718,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -753,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -796,26 +795,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,15 +843,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6">
         <v>510.64</v>
@@ -864,15 +863,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6">
         <v>511.16</v>
@@ -884,15 +883,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6">
         <v>2487.16</v>
@@ -904,15 +903,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6">
         <v>2487.6800000000003</v>
@@ -924,15 +923,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6">
         <v>2539.16</v>
@@ -944,15 +943,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6">
         <v>12627.16</v>
@@ -964,15 +963,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6">
         <v>12627.68</v>
@@ -984,15 +983,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6">
         <v>12679.16</v>
@@ -1004,15 +1003,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="6">
         <v>32907.160000000003</v>
@@ -1024,15 +1023,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6">
         <v>32907.68</v>
@@ -1044,15 +1043,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6">
         <v>150479.16</v>
@@ -1064,15 +1063,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6">
         <v>150479.67999999999</v>
@@ -1084,15 +1083,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="6">
         <v>10399.48</v>
@@ -1104,15 +1103,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="6">
         <v>10399.48</v>
@@ -1124,15 +1123,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6">
         <v>10399.48</v>
@@ -1144,15 +1143,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="6">
         <v>10399.48</v>
@@ -1164,12 +1163,12 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>19</v>
@@ -1184,12 +1183,12 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>19</v>
@@ -1204,12 +1203,12 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>19</v>
@@ -1226,34 +1225,34 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="53.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1297,15 +1296,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -1314,13 +1313,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>33</v>
@@ -1332,15 +1331,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>17</v>
@@ -1349,13 +1348,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>33</v>
@@ -1367,15 +1366,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>17</v>
@@ -1384,13 +1383,13 @@
         <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>33</v>
@@ -1402,15 +1401,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
@@ -1419,13 +1418,13 @@
         <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>33</v>
@@ -1437,15 +1436,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>17</v>
@@ -1454,13 +1453,13 @@
         <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>33</v>
@@ -1472,15 +1471,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>17</v>
@@ -1489,13 +1488,13 @@
         <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>33</v>
@@ -1507,15 +1506,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>17</v>
@@ -1524,13 +1523,13 @@
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>33</v>
@@ -1542,15 +1541,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
@@ -1559,13 +1558,13 @@
         <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>33</v>
@@ -1577,15 +1576,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>17</v>
@@ -1594,13 +1593,13 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>33</v>
@@ -1612,15 +1611,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="11" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>17</v>
@@ -1629,13 +1628,13 @@
         <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>33</v>
@@ -1647,15 +1646,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="12" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
@@ -1664,13 +1663,13 @@
         <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>33</v>
@@ -1682,15 +1681,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="13" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>17</v>
@@ -1699,13 +1698,13 @@
         <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>33</v>
@@ -1717,15 +1716,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="14" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>17</v>
@@ -1734,13 +1733,13 @@
         <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>33</v>
@@ -1752,15 +1751,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="15" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>17</v>
@@ -1769,13 +1768,13 @@
         <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>33</v>
@@ -1787,15 +1786,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="16" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>17</v>
@@ -1804,13 +1803,13 @@
         <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>33</v>
@@ -1822,15 +1821,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="17" s="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>17</v>
@@ -1839,13 +1838,13 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>33</v>
@@ -1857,15 +1856,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="18" s="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>17</v>
@@ -1874,13 +1873,13 @@
         <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>33</v>
@@ -1892,15 +1891,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="19" s="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>17</v>
@@ -1909,13 +1908,13 @@
         <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>33</v>
@@ -1927,15 +1926,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="20" s="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
@@ -1944,13 +1943,13 @@
         <v>34</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>33</v>
@@ -1964,16 +1963,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A13"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A14:A20"/>
+    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A14:A20" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1982,17 +1981,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="51.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2027,7 +2026,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2039,15 +2038,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -2056,13 +2055,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>36</v>
@@ -2071,7 +2070,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>4</v>
@@ -2079,8 +2078,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F3A7F643-2925-4836-B2DE-BDA58144DBB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -138,9 +139,6 @@
     <t>DONT TOUCH AUTO GLTW EMPLOYER</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 318</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 319</t>
   </si>
   <si>
@@ -235,12 +233,15 @@
   </si>
   <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201819\\201819 Scottish Payroll Net Income tax calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +375,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,7 +710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -801,11 +802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,13 +846,13 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="6">
         <v>510.64</v>
@@ -865,13 +866,13 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6">
         <v>511.16</v>
@@ -885,13 +886,13 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6">
         <v>2487.16</v>
@@ -905,13 +906,13 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6">
         <v>2487.6800000000003</v>
@@ -925,13 +926,13 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6">
         <v>2539.16</v>
@@ -945,13 +946,13 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6">
         <v>12627.16</v>
@@ -965,13 +966,13 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6">
         <v>12627.68</v>
@@ -985,13 +986,13 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6">
         <v>12679.16</v>
@@ -1005,13 +1006,13 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6">
         <v>32907.160000000003</v>
@@ -1025,13 +1026,13 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6">
         <v>32907.68</v>
@@ -1045,13 +1046,13 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6">
         <v>150479.16</v>
@@ -1065,13 +1066,13 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="6">
         <v>150479.67999999999</v>
@@ -1085,13 +1086,13 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6">
         <v>10399.48</v>
@@ -1105,13 +1106,13 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="6">
         <v>10399.48</v>
@@ -1125,13 +1126,13 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="6">
         <v>10399.48</v>
@@ -1145,13 +1146,13 @@
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6">
         <v>10399.48</v>
@@ -1165,10 +1166,10 @@
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>19</v>
@@ -1185,10 +1186,10 @@
     </row>
     <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>19</v>
@@ -1205,10 +1206,10 @@
     </row>
     <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>19</v>
@@ -1225,7 +1226,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1235,11 +1236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,10 +1302,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -1313,13 +1314,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>33</v>
@@ -1336,10 +1337,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>17</v>
@@ -1348,13 +1349,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>33</v>
@@ -1371,10 +1372,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>17</v>
@@ -1383,13 +1384,13 @@
         <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>33</v>
@@ -1406,10 +1407,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
@@ -1418,13 +1419,13 @@
         <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>33</v>
@@ -1441,10 +1442,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>17</v>
@@ -1453,13 +1454,13 @@
         <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>33</v>
@@ -1476,10 +1477,10 @@
         <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>17</v>
@@ -1488,13 +1489,13 @@
         <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>33</v>
@@ -1511,10 +1512,10 @@
         <v>37</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>17</v>
@@ -1523,13 +1524,13 @@
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>33</v>
@@ -1546,10 +1547,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
@@ -1558,13 +1559,13 @@
         <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>33</v>
@@ -1581,10 +1582,10 @@
         <v>37</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>17</v>
@@ -1593,13 +1594,13 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>33</v>
@@ -1616,10 +1617,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>17</v>
@@ -1628,13 +1629,13 @@
         <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>33</v>
@@ -1651,10 +1652,10 @@
         <v>37</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
@@ -1663,13 +1664,13 @@
         <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>33</v>
@@ -1686,10 +1687,10 @@
         <v>37</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>17</v>
@@ -1698,13 +1699,13 @@
         <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>33</v>
@@ -1721,10 +1722,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>17</v>
@@ -1733,13 +1734,13 @@
         <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>33</v>
@@ -1756,10 +1757,10 @@
         <v>37</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>17</v>
@@ -1768,13 +1769,13 @@
         <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>33</v>
@@ -1791,10 +1792,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>17</v>
@@ -1803,13 +1804,13 @@
         <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>33</v>
@@ -1826,10 +1827,10 @@
         <v>37</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>17</v>
@@ -1838,13 +1839,13 @@
         <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>33</v>
@@ -1861,10 +1862,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>17</v>
@@ -1873,13 +1874,13 @@
         <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>33</v>
@@ -1896,10 +1897,10 @@
         <v>37</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>17</v>
@@ -1908,13 +1909,13 @@
         <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>33</v>
@@ -1931,10 +1932,10 @@
         <v>37</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
@@ -1943,13 +1944,13 @@
         <v>34</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>33</v>
@@ -1963,8 +1964,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A14:A20" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A14:A20" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1972,7 +1973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2026,7 +2027,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2043,10 +2044,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -2055,13 +2056,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>36</v>
@@ -2070,7 +2071,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>4</v>
@@ -2078,7 +2079,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F3A7F643-2925-4836-B2DE-BDA58144DBB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="12_ncr:500000_{F3A7F643-2925-4836-B2DE-BDA58144DBB8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="7545" windowWidth="20490" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="71">
   <si>
     <t>TC</t>
   </si>
@@ -242,6 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,57 +329,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -395,10 +396,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -433,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,7 +486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,7 +591,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -599,13 +600,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -615,7 +616,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -624,7 +625,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -633,7 +634,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -643,12 +644,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -679,7 +680,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -698,7 +699,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -710,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -719,10 +720,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -753,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -796,13 +797,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -811,11 +812,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -864,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
@@ -884,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -904,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -924,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -944,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -964,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
@@ -984,7 +985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>56</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>59</v>
       </c>
@@ -1226,17 +1227,17 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1245,15 +1246,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="53.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1297,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="11" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="12" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="13" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="14" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="15" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="16" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="17" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="18" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="19" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="20" s="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -1964,16 +1965,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A14:A20" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A13" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A14:A20" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1982,17 +1983,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2039,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -2079,8 +2080,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxGeneralAndLargeTaxcodeWeekly201819.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="71">
   <si>
     <t>TC</t>
   </si>
